--- a/biology/Botanique/Melanophyllaceae/Melanophyllaceae.xlsx
+++ b/biology/Botanique/Melanophyllaceae/Melanophyllaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Mélanophyllacées est une famille de plantes dicotylédones
 Ce sont des petits arbres ou des arbustes, à feuilles alternes noircissantes, originaires de Madagascar.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre Melanophylla, dérivé du grec μελανία / melania « noir ; encre » et φύλλο / phyllo, feuille.
 </t>
@@ -543,12 +557,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification phylogénétique APG (1998)[1] et classification phylogénétique APG II (2003)[2], c'est une petite famille qui comprend 8 espèces du genre Melanophylla (en).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification phylogénétique APG (1998) et classification phylogénétique APG II (2003), c'est une petite famille qui comprend 8 espèces du genre Melanophylla (en).
 Le Angiosperm Phylogeny Website [20 décembre 2006] n'accepte pas cette famille et inclut cette plante dans les Torricelliacées.
 Classiquement ces plantes sont incluses dans les Cornacées.
-En classification phylogénétique APG III (2009)[3] cette famille est invalide et ses genres sont incorporés dans la famille Torricelliaceae.
+En classification phylogénétique APG III (2009) cette famille est invalide et ses genres sont incorporés dans la famille Torricelliaceae.
 </t>
         </is>
       </c>
